--- a/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Batman- Troika (WEB-CBRO)-USER.xlsx
+++ b/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Batman- Troika (WEB-CBRO)-USER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>SeriesName</t>
   </si>
@@ -49,6 +49,9 @@
     <t>CV Issue Number</t>
   </si>
   <si>
+    <t>CV Series Publisher</t>
+  </si>
+  <si>
     <t>CV Cover Image</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Days Between Issues</t>
   </si>
   <si>
-    <t>CV Series Publisher</t>
-  </si>
-  <si>
     <t>Batman</t>
   </si>
   <si>
@@ -73,6 +73,18 @@
     <t>Robin</t>
   </si>
   <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -82,16 +94,7 @@
     <t>Batman: Shadow of the Bat</t>
   </si>
   <si>
-    <t>515</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>682</t>
-  </si>
-  <si>
-    <t>nan</t>
+    <t>DC Comics</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -106,10 +109,7 @@
     <t>https://comicvine.gamespot.com/issue/4000-113144/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-40423/</t>
-  </si>
-  <si>
-    <t>DC Comics</t>
+    <t>https://comicvine.gamespot.com/robin-14-big-city-bomber/4000-40423/</t>
   </si>
 </sst>
 </file>
@@ -542,17 +542,17 @@
       <c r="C2" s="2">
         <v>1940</v>
       </c>
-      <c r="D2" s="2">
-        <v>515</v>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3">
         <v>34731</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2">
         <v>796</v>
@@ -567,7 +567,7 @@
         <v>1940</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>26</v>
@@ -575,11 +575,11 @@
       <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="4">
         <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -592,17 +592,17 @@
       <c r="C3" s="2">
         <v>1992</v>
       </c>
-      <c r="D3" s="2">
-        <v>35</v>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3">
         <v>34731</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2">
         <v>4724</v>
@@ -611,25 +611,25 @@
         <v>40505</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2">
         <v>1992</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="4">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="4">
         <v>0</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -642,17 +642,17 @@
       <c r="C4" s="2">
         <v>1937</v>
       </c>
-      <c r="D4" s="2">
-        <v>682</v>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3">
         <v>34731</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2">
         <v>18058</v>
@@ -667,19 +667,19 @@
         <v>1937</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="4">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="4">
         <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -692,17 +692,17 @@
       <c r="C5" s="2">
         <v>1993</v>
       </c>
-      <c r="D5" s="2">
-        <v>14</v>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3">
         <v>34731</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2">
         <v>4975</v>
@@ -717,27 +717,27 @@
         <v>1993</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="4">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="4">
         <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
